--- a/Data-Analysis-Internship-task.xlsx
+++ b/Data-Analysis-Internship-task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\preci\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C5EA9C-9002-4895-BB2E-DB2B2970F8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9CFFB65-1D95-4146-B778-B2FC2FF6985D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{24A3B46B-1264-4877-B9D0-FBFFBEC492E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>Resaurant ID</t>
   </si>
@@ -53,24 +53,9 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Locality</t>
-  </si>
-  <si>
     <t>Locality Verbose</t>
   </si>
   <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Cuisaes</t>
-  </si>
-  <si>
-    <t>Average Cosafor two</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -107,18 +92,6 @@
     <t>Makati City</t>
   </si>
   <si>
-    <t>Third Floor, Century City Mall, Kalayaan Avenue, Poblacion, Makati City</t>
-  </si>
-  <si>
-    <t>Century City Mall, Poblacion, Makati City</t>
-  </si>
-  <si>
-    <t>Century City Mall, Poblacion, Makati City, Makati City</t>
-  </si>
-  <si>
-    <t>French, Japanesa Desarts</t>
-  </si>
-  <si>
     <t>Botsana Pula(P)</t>
   </si>
   <si>
@@ -137,36 +110,12 @@
     <t>Izakaya Kikufuji</t>
   </si>
   <si>
-    <t>Little Tokyo, 2277 Chino Rocesavenue, Legasa Village, Makati City</t>
-  </si>
-  <si>
-    <t>Little Tokyo, Legasa Village, Makati City</t>
-  </si>
-  <si>
-    <t>Little Tokyo, Legasa Village, Makati City, Makati City</t>
-  </si>
-  <si>
-    <t>Japanese</t>
-  </si>
-  <si>
     <t>Heat - Edsasangri-La</t>
   </si>
   <si>
     <t>Mandaluyong City</t>
   </si>
   <si>
-    <t>Edsasangri-La, 1 Garden Way, OrtigasaMandaluyong City</t>
-  </si>
-  <si>
-    <t>Edsasangri-La, OrtigasaMandaluyong City</t>
-  </si>
-  <si>
-    <t>Edsasangri-La, OrtigasaMandaluyong City, Mandaluyong City</t>
-  </si>
-  <si>
-    <t>safood, Asan, Filipino, Indian</t>
-  </si>
-  <si>
     <t>Green</t>
   </si>
   <si>
@@ -176,34 +125,40 @@
     <t>Ooma</t>
   </si>
   <si>
-    <t>Third Floor, Mega Fasaon Hall, saMegamall, OrtigasaMandaluyong City</t>
-  </si>
-  <si>
-    <t>saMegamall, OrtigasaMandaluyong City</t>
-  </si>
-  <si>
-    <t>saMegamall, OrtigasaMandaluyong City, Mandaluyong City</t>
-  </si>
-  <si>
-    <t>Japanesa sahi</t>
-  </si>
-  <si>
     <t>sabo Kojin</t>
   </si>
   <si>
-    <t>Third Floor, Mega Atrium, saMegamall, OrtigasaMandaluyong City</t>
-  </si>
-  <si>
-    <t>Japanesa Korean</t>
-  </si>
-  <si>
     <t>Din Tai Fung</t>
   </si>
   <si>
-    <t>Ground Floor, Mega Fasaon Hall, saMegamall, OrtigasaMandaluyong City</t>
-  </si>
-  <si>
-    <t>Chinese</t>
+    <t>Century City Mall</t>
+  </si>
+  <si>
+    <t>Little Tokyo</t>
+  </si>
+  <si>
+    <t>Edsasangri-La</t>
+  </si>
+  <si>
+    <t>saMegamall</t>
+  </si>
+  <si>
+    <t>Third Floor, Century City Mall, Kalayaan Avenue, Poblacion</t>
+  </si>
+  <si>
+    <t>Little Tokyo, 2277 Chino Rocesavenue, Legasa Village</t>
+  </si>
+  <si>
+    <t>Edsasangri-La, 1 Garden Way</t>
+  </si>
+  <si>
+    <t>Third Floor, Mega Fasaon Hall, saMegamall</t>
+  </si>
+  <si>
+    <t>Third Floor, Mega Atrium, saMegamall</t>
+  </si>
+  <si>
+    <t>Ground Floor, Mega Fasaon Hall, saMegamall</t>
   </si>
 </sst>
 </file>
@@ -584,15 +539,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FAA07D-321B-44E9-941C-F007E0554DBB}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,409 +614,304 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6317637</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>162</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>4.8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>121.027535</v>
-      </c>
-      <c r="I2">
-        <v>14.565443</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2">
-        <v>1100</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2">
-        <v>3</v>
-      </c>
-      <c r="R2">
-        <v>4.8</v>
-      </c>
-      <c r="S2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2">
+      <c r="P2">
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6304287</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>162</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>4.5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3">
-        <v>121.014101</v>
-      </c>
-      <c r="I3">
-        <v>14.553708</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3">
-        <v>1200</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3">
-        <v>3</v>
-      </c>
-      <c r="R3">
-        <v>4.5</v>
-      </c>
-      <c r="S3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3">
+      <c r="P3">
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6300002</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4">
-        <v>121.056831</v>
-      </c>
-      <c r="I4">
-        <v>14.581403999999999</v>
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4">
-        <v>4000</v>
-      </c>
-      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>27</v>
       </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
-      </c>
-      <c r="R4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="S4" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4">
+      <c r="P4">
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6318506</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>162</v>
       </c>
       <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5">
-        <v>121.05647500000001</v>
-      </c>
-      <c r="I5">
-        <v>14.585317999999999</v>
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5">
-        <v>1500</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4.9000000000000004</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="S5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5">
+        <v>22</v>
+      </c>
+      <c r="P5">
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6314302</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6">
-        <v>121.057508</v>
-      </c>
-      <c r="I6">
-        <v>14.58445</v>
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6">
-        <v>1500</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4.8</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-      <c r="R6">
-        <v>4.8</v>
-      </c>
-      <c r="S6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6">
+        <v>22</v>
+      </c>
+      <c r="P6">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18189371</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7">
-        <v>121.056314</v>
-      </c>
-      <c r="I7">
-        <v>14.583764</v>
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7">
-        <v>1000</v>
-      </c>
-      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
         <v>27</v>
       </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="R7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="S7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" t="s">
-        <v>44</v>
-      </c>
-      <c r="U7">
+      <c r="P7">
         <v>336</v>
       </c>
     </row>
